--- a/all_annotated/B_Q4_2012_1.xlsx
+++ b/all_annotated/B_Q4_2012_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew\Desktop\School\College\Fall 2023\VIP 3602\SubjECTive-QA\Andrew-annotations\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hp/Desktop/SubjECTive-QA/all_annotated/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD5A4E4C-2E01-4250-8872-CF9B7CB8EB27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{900BDC6D-890A-9A4D-AF96-61CC1B4FBF11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="23260" windowHeight="12460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="103">
   <si>
     <t>Asker</t>
   </si>
@@ -166,9 +166,6 @@
   <si>
     <t>  Couple of questions. First on the transaction. Because I know your tax rates differed so much by jurisdiction, how much EPS accretion was there in 2012 from the business you're selling?</t>
-  </si>
-  <si>
-    <t>Oh, that's a good question.</t>
   </si>
   <si>
     <t>Yes. Again, for purposes of disclosure, Matt, we don't get to the SBU level.</t>
@@ -705,18 +702,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J49"/>
+  <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="119" workbookViewId="0">
-      <selection activeCell="K53" sqref="K53"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="119" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="4" width="39.44140625" style="3" customWidth="1"/>
+    <col min="3" max="4" width="39.5" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -748,7 +745,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -780,7 +777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -812,7 +809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="256" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -844,7 +841,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="64" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -876,7 +873,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="176" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -908,7 +905,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="80" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -940,7 +937,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="128" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -972,7 +969,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="96" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1004,7 +1001,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="144" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1036,7 +1033,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="144" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="144" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1068,7 +1065,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="144" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="128" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1100,7 +1097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="64" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1132,7 +1129,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -1164,7 +1161,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="144" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="144" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -1196,7 +1193,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="128" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -1228,7 +1225,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -1260,7 +1257,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -1292,7 +1289,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -1324,12 +1321,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="64" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>46</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>47</v>
@@ -1353,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="112" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>46</v>
       </c>
@@ -1364,10 +1361,10 @@
         <v>11</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E21">
         <v>2</v>
@@ -1388,7 +1385,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" ht="192" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>46</v>
       </c>
@@ -1396,10 +1393,10 @@
         <v>11</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E22">
         <v>2</v>
@@ -1414,21 +1411,21 @@
         <v>2</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J22">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" ht="96" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>46</v>
       </c>
       <c r="B23" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>53</v>
@@ -1446,13 +1443,13 @@
         <v>2</v>
       </c>
       <c r="I23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" ht="64" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>46</v>
       </c>
@@ -1460,16 +1457,16 @@
         <v>14</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E24">
         <v>2</v>
       </c>
       <c r="F24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1484,15 +1481,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" ht="64" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>46</v>
       </c>
       <c r="B25" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>56</v>
@@ -1501,7 +1498,7 @@
         <v>2</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1510,24 +1507,24 @@
         <v>2</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J25">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" ht="160" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>46</v>
       </c>
       <c r="B26" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E26">
         <v>2</v>
@@ -1548,7 +1545,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" ht="176" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>46</v>
       </c>
@@ -1556,10 +1553,10 @@
         <v>14</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E27">
         <v>2</v>
@@ -1571,7 +1568,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27">
         <v>2</v>
@@ -1580,341 +1577,341 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" ht="160" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="B28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>2</v>
+      </c>
+      <c r="I28">
+        <v>2</v>
+      </c>
+      <c r="J28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>2</v>
+      </c>
+      <c r="I29">
+        <v>2</v>
+      </c>
+      <c r="J29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="272" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D28" s="3" t="s">
+      <c r="C30" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>2</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="335" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>61</v>
       </c>
-      <c r="E28">
-        <v>2</v>
-      </c>
-      <c r="F28">
-        <v>2</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="I28">
-        <v>2</v>
-      </c>
-      <c r="J28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="144" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B29" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E29">
-        <v>2</v>
-      </c>
-      <c r="F29">
-        <v>2</v>
-      </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>2</v>
-      </c>
-      <c r="I29">
-        <v>2</v>
-      </c>
-      <c r="J29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>62</v>
-      </c>
-      <c r="B30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E30">
-        <v>2</v>
-      </c>
-      <c r="F30">
-        <v>2</v>
-      </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>2</v>
-      </c>
-      <c r="I30">
-        <v>2</v>
-      </c>
-      <c r="J30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="259.2" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>62</v>
-      </c>
       <c r="B31" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>2</v>
+      </c>
+      <c r="I31">
+        <v>2</v>
+      </c>
+      <c r="J31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="128" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>71</v>
+      </c>
+      <c r="B32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>2</v>
+      </c>
+      <c r="I32">
+        <v>2</v>
+      </c>
+      <c r="J32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>2</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>2</v>
+      </c>
+      <c r="J33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>71</v>
+      </c>
+      <c r="B34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>2</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="160" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>71</v>
+      </c>
+      <c r="B36" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>2</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>2</v>
+      </c>
+      <c r="J36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37" t="s">
         <v>14</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E31">
-        <v>2</v>
-      </c>
-      <c r="F31">
-        <v>2</v>
-      </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>2</v>
-      </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
-      <c r="J31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="331.2" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>62</v>
-      </c>
-      <c r="B32" t="s">
-        <v>69</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E32">
-        <v>2</v>
-      </c>
-      <c r="F32">
-        <v>2</v>
-      </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>2</v>
-      </c>
-      <c r="I32">
-        <v>2</v>
-      </c>
-      <c r="J32">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>72</v>
-      </c>
-      <c r="B33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E33">
-        <v>2</v>
-      </c>
-      <c r="F33">
-        <v>2</v>
-      </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>2</v>
-      </c>
-      <c r="I33">
-        <v>2</v>
-      </c>
-      <c r="J33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>72</v>
-      </c>
-      <c r="B34" t="s">
-        <v>11</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E34">
-        <v>2</v>
-      </c>
-      <c r="F34">
-        <v>2</v>
-      </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <v>1</v>
-      </c>
-      <c r="I34">
-        <v>2</v>
-      </c>
-      <c r="J34">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>72</v>
-      </c>
-      <c r="B35" t="s">
-        <v>11</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E35">
-        <v>2</v>
-      </c>
-      <c r="F35">
-        <v>2</v>
-      </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
-      <c r="J35">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>72</v>
-      </c>
-      <c r="B36" t="s">
-        <v>11</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D36" s="3" t="s">
+      <c r="C37" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="E36">
-        <v>2</v>
-      </c>
-      <c r="F36">
-        <v>2</v>
-      </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
-      <c r="H36">
-        <v>0</v>
-      </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
-      <c r="J36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>72</v>
-      </c>
-      <c r="B37" t="s">
-        <v>11</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>81</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>82</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H37">
         <v>0</v>
       </c>
       <c r="I37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J37">
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" ht="176" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B38" t="s">
         <v>14</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F38">
         <v>2</v>
@@ -1932,18 +1929,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" ht="288" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B39" t="s">
         <v>14</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E39">
         <v>2</v>
@@ -1955,7 +1952,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -1964,79 +1961,79 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="288" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" ht="224" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B40" t="s">
+        <v>68</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E40">
+        <v>2</v>
+      </c>
+      <c r="F40">
+        <v>2</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>2</v>
+      </c>
+      <c r="I40">
+        <v>2</v>
+      </c>
+      <c r="J40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E41">
+        <v>2</v>
+      </c>
+      <c r="F41">
+        <v>2</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>2</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" t="s">
         <v>14</v>
       </c>
-      <c r="C40" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E40">
-        <v>2</v>
-      </c>
-      <c r="F40">
-        <v>2</v>
-      </c>
-      <c r="G40">
-        <v>0</v>
-      </c>
-      <c r="H40">
-        <v>2</v>
-      </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
-      <c r="J40">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>72</v>
-      </c>
-      <c r="B41" t="s">
-        <v>69</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D41" s="3" t="s">
+      <c r="C42" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="E41">
-        <v>2</v>
-      </c>
-      <c r="F41">
-        <v>2</v>
-      </c>
-      <c r="G41">
-        <v>0</v>
-      </c>
-      <c r="H41">
-        <v>2</v>
-      </c>
-      <c r="I41">
-        <v>2</v>
-      </c>
-      <c r="J41">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>10</v>
-      </c>
-      <c r="B42" t="s">
-        <v>11</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>90</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>91</v>
@@ -2060,47 +2057,47 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" ht="128" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>10</v>
       </c>
       <c r="B43" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E43">
+        <v>2</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>2</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="112" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" t="s">
         <v>14</v>
       </c>
-      <c r="C43" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D43" s="3" t="s">
+      <c r="C44" s="3" t="s">
         <v>92</v>
-      </c>
-      <c r="E43">
-        <v>2</v>
-      </c>
-      <c r="F43">
-        <v>2</v>
-      </c>
-      <c r="G43">
-        <v>0</v>
-      </c>
-      <c r="H43">
-        <v>2</v>
-      </c>
-      <c r="I43">
-        <v>0</v>
-      </c>
-      <c r="J43">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>10</v>
-      </c>
-      <c r="B44" t="s">
-        <v>11</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>93</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>94</v>
@@ -2109,10 +2106,10 @@
         <v>2</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G44">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H44">
         <v>0</v>
@@ -2124,18 +2121,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" ht="80" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>10</v>
       </c>
       <c r="B45" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E45">
         <v>2</v>
@@ -2147,7 +2144,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45">
         <v>0</v>
@@ -2156,7 +2153,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>10</v>
       </c>
@@ -2164,10 +2161,10 @@
         <v>11</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E46">
         <v>2</v>
@@ -2182,13 +2179,13 @@
         <v>2</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J46">
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" ht="80" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>10</v>
       </c>
@@ -2196,10 +2193,10 @@
         <v>11</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E47">
         <v>2</v>
@@ -2214,13 +2211,13 @@
         <v>2</v>
       </c>
       <c r="I47">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J47">
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>10</v>
       </c>
@@ -2228,10 +2225,10 @@
         <v>11</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E48">
         <v>2</v>
@@ -2243,44 +2240,12 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I48">
         <v>0</v>
       </c>
       <c r="J48">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>10</v>
-      </c>
-      <c r="B49" t="s">
-        <v>11</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="E49">
-        <v>2</v>
-      </c>
-      <c r="F49">
-        <v>2</v>
-      </c>
-      <c r="G49">
-        <v>0</v>
-      </c>
-      <c r="H49">
-        <v>1</v>
-      </c>
-      <c r="I49">
-        <v>0</v>
-      </c>
-      <c r="J49">
         <v>2</v>
       </c>
     </row>
